--- a/seronetTemplates/dictionary/Facetdict.xlsx
+++ b/seronetTemplates/dictionary/Facetdict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538CADA1-6C61-3E48-9479-ECBE8E8ADD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC250296-C1E2-1E4B-ACCC-589C0058F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="500" windowWidth="15760" windowHeight="19140" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
+    <workbookView xWindow="20440" yWindow="500" windowWidth="24760" windowHeight="20280" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Study Type</t>
   </si>
@@ -68,9 +68,6 @@
     <t>in_silico_model_type</t>
   </si>
   <si>
-    <t>sars-cov-2_vaccine_type</t>
-  </si>
-  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -159,13 +156,28 @@
   </si>
   <si>
     <t>Virus Strain</t>
+  </si>
+  <si>
+    <t>sars_cov_2_vaccine_type-study</t>
+  </si>
+  <si>
+    <t>sars_cov_2_vaccine_type-study-subject</t>
+  </si>
+  <si>
+    <t>covid_19_disease_severity</t>
+  </si>
+  <si>
+    <t>arm_type</t>
+  </si>
+  <si>
+    <t>Arm Type [ImmPort only]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +188,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,8 +221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -521,34 +542,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB870CCF-F23D-E640-832C-A473E7D69837}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="212" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="212" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -556,7 +577,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -564,159 +585,159 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -724,11 +745,11 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/seronetTemplates/dictionary/Facetdict.xlsx
+++ b/seronetTemplates/dictionary/Facetdict.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC250296-C1E2-1E4B-ACCC-589C0058F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1776E8DD-8102-E845-B6FD-7C9B7F19A84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20440" yWindow="500" windowWidth="24760" windowHeight="20280" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
+    <workbookView xWindow="11080" yWindow="500" windowWidth="24760" windowHeight="20200" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -221,10 +221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -542,13 +541,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB870CCF-F23D-E640-832C-A473E7D69837}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="212" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,7 +560,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -569,7 +568,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -577,7 +576,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -585,7 +584,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -593,7 +592,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -601,7 +600,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
@@ -609,7 +608,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -617,7 +616,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
@@ -625,7 +624,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
@@ -633,7 +632,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -641,7 +640,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -649,7 +648,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -657,7 +656,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="B14" t="s">
@@ -665,7 +664,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -673,7 +672,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -681,7 +680,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
@@ -689,7 +688,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -697,7 +696,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -705,7 +704,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -713,7 +712,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -721,7 +720,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -729,7 +728,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -737,7 +736,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -745,7 +744,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
       <c r="B25" t="s">

--- a/seronetTemplates/dictionary/Facetdict.xlsx
+++ b/seronetTemplates/dictionary/Facetdict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1776E8DD-8102-E845-B6FD-7C9B7F19A84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69128330-22DA-6E43-8F30-2AB7BBDD07DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="500" windowWidth="24760" windowHeight="20200" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
+    <workbookView xWindow="16120" yWindow="500" windowWidth="19720" windowHeight="20200" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Study Type</t>
   </si>
@@ -77,15 +77,6 @@
     <t>sex_at_birth</t>
   </si>
   <si>
-    <t>sars-cov-2_symptoms</t>
-  </si>
-  <si>
-    <t>sars-cov2_history</t>
-  </si>
-  <si>
-    <t>covid-19_disease_severity</t>
-  </si>
-  <si>
     <t>genus_and_species</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>biospecimen_collection_point</t>
   </si>
   <si>
-    <t>sars-cov-2_antigen</t>
-  </si>
-  <si>
     <t>virus_target</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>sars_cov_2_vaccine_type-study</t>
   </si>
   <si>
-    <t>sars_cov_2_vaccine_type-study-subject</t>
-  </si>
-  <si>
     <t>covid_19_disease_severity</t>
   </si>
   <si>
@@ -171,6 +156,24 @@
   </si>
   <si>
     <t>Arm Type [ImmPort only]</t>
+  </si>
+  <si>
+    <t>study_location</t>
+  </si>
+  <si>
+    <t>Study Location</t>
+  </si>
+  <si>
+    <t>sars_cov_2_history</t>
+  </si>
+  <si>
+    <t>sars_cov_2_symptoms</t>
+  </si>
+  <si>
+    <t>sars_cov_2_vaccine_type-subject</t>
+  </si>
+  <si>
+    <t>sars_cov_2_antigen</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -243,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB870CCF-F23D-E640-832C-A473E7D69837}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,205 +577,195 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
+      <c r="A13" t="s">
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
+      <c r="A14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B23">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seronetTemplates/dictionary/Facetdict.xlsx
+++ b/seronetTemplates/dictionary/Facetdict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69128330-22DA-6E43-8F30-2AB7BBDD07DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4D523F-BA7D-2C47-8C74-6C6FDBEE7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="500" windowWidth="19720" windowHeight="20200" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,7 +566,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,11 +760,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A23">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B23">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/seronetTemplates/dictionary/Facetdict.xlsx
+++ b/seronetTemplates/dictionary/Facetdict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4D523F-BA7D-2C47-8C74-6C6FDBEE7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1328D5-FCDD-AA4F-B05B-2963F8AE9F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="500" windowWidth="19720" windowHeight="20200" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="19720" windowHeight="20160" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Study Type</t>
   </si>
@@ -143,9 +143,6 @@
     <t>SARS-CoV-2 Antigen</t>
   </si>
   <si>
-    <t>Virus Strain</t>
-  </si>
-  <si>
     <t>sars_cov_2_vaccine_type-study</t>
   </si>
   <si>
@@ -174,6 +171,15 @@
   </si>
   <si>
     <t>sars_cov_2_antigen</t>
+  </si>
+  <si>
+    <t>study_file_type</t>
+  </si>
+  <si>
+    <t>Study File Type [ImmPort only] and JSON Summary Description</t>
+  </si>
+  <si>
+    <t>Virus Target</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB870CCF-F23D-E640-832C-A473E7D69837}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +639,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -665,7 +671,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -673,7 +679,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -681,7 +687,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -724,23 +730,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,17 +759,25 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A23">
+  <conditionalFormatting sqref="A2:A24">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
+  <conditionalFormatting sqref="B2:B24">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seronetTemplates/dictionary/Facetdict.xlsx
+++ b/seronetTemplates/dictionary/Facetdict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1328D5-FCDD-AA4F-B05B-2963F8AE9F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0A7B7B-654C-FB4A-B2A8-CA3CD1DF4A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="19720" windowHeight="20160" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
+    <workbookView xWindow="2560" yWindow="760" windowWidth="19720" windowHeight="17580" xr2:uid="{5610A810-D1C2-A345-ADCE-1FBB1FD85AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Study Type</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Virus Target</t>
+  </si>
+  <si>
+    <t>protocol_type</t>
+  </si>
+  <si>
+    <t>Protocol Type [ImmPort]</t>
   </si>
 </sst>
 </file>
@@ -273,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB870CCF-F23D-E640-832C-A473E7D69837}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,8 +779,16 @@
         <v>46</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A25">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
